--- a/planejamento/cronograma2025.xlsx
+++ b/planejamento/cronograma2025.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t xml:space="preserve">LEGENDA             ======================================&gt; </t>
   </si>
@@ -209,6 +209,33 @@
   </si>
   <si>
     <t>semana 04/08</t>
+  </si>
+  <si>
+    <t>semana 11/08</t>
+  </si>
+  <si>
+    <t>semana 18/08</t>
+  </si>
+  <si>
+    <t>semana 25/08</t>
+  </si>
+  <si>
+    <t>semana 01/09</t>
+  </si>
+  <si>
+    <t>semana 08/09</t>
+  </si>
+  <si>
+    <t>semana 15/09</t>
+  </si>
+  <si>
+    <t>semana 22/09</t>
+  </si>
+  <si>
+    <t>semana 29/09</t>
+  </si>
+  <si>
+    <t>semana 06/10</t>
   </si>
 </sst>
 </file>
@@ -235,7 +262,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,12 +278,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,18 +299,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -441,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180" wrapText="1" readingOrder="1"/>
@@ -457,12 +466,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -482,33 +485,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -521,6 +506,10 @@
     </xf>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -802,69 +791,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG21"/>
+  <dimension ref="A1:AO21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T2" sqref="T2"/>
+      <selection pane="bottomRight" activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="57" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="13" customWidth="1"/>
-    <col min="6" max="7" width="6.7109375" style="19"/>
-    <col min="23" max="23" width="11.140625" customWidth="1"/>
-    <col min="24" max="24" width="10.42578125" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" customWidth="1"/>
-    <col min="26" max="26" width="12.42578125" customWidth="1"/>
-    <col min="27" max="27" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" style="11" customWidth="1"/>
+    <col min="6" max="7" width="6.7109375" style="14"/>
+    <col min="23" max="31" width="11.140625" customWidth="1"/>
+    <col min="32" max="32" width="10.42578125" customWidth="1"/>
+    <col min="33" max="33" width="9.140625" customWidth="1"/>
+    <col min="34" max="34" width="12.42578125" customWidth="1"/>
+    <col min="35" max="35" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:41" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
       <c r="Q1" s="3"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="26" t="s">
+      <c r="R1" s="15"/>
+      <c r="S1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-    </row>
-    <row r="2" spans="1:33" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+    </row>
+    <row r="2" spans="1:41" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -925,59 +922,79 @@
         <v>57</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="Y2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="16" t="s">
+      <c r="AK2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="16" t="s">
+      <c r="AL2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AE2" s="15" t="s">
+      <c r="AM2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AF2" s="15" t="s">
+      <c r="AN2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AG2" s="15" t="s">
+      <c r="AO2" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:41" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1000,21 +1017,29 @@
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
-    </row>
-    <row r="4" spans="1:33" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+    </row>
+    <row r="4" spans="1:41" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1037,242 +1062,298 @@
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
-    </row>
-    <row r="5" spans="1:33" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+    </row>
+    <row r="5" spans="1:41" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
-    </row>
-    <row r="6" spans="1:33" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+    </row>
+    <row r="6" spans="1:41" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="14"/>
-    </row>
-    <row r="7" spans="1:33" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+    </row>
+    <row r="7" spans="1:41" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
-    </row>
-    <row r="8" spans="1:33" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+    </row>
+    <row r="8" spans="1:41" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
-    </row>
-    <row r="9" spans="1:33" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+    </row>
+    <row r="9" spans="1:41" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="6"/>
-    </row>
-    <row r="10" spans="1:33" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+    </row>
+    <row r="10" spans="1:41" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
       <c r="AF10" s="4"/>
       <c r="AG10" s="4"/>
-    </row>
-    <row r="11" spans="1:33" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
+    </row>
+    <row r="11" spans="1:41" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="14"/>
+      <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -1284,7 +1365,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="14"/>
+      <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
@@ -1296,17 +1377,25 @@
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
       <c r="AG11" s="3"/>
-    </row>
-    <row r="12" spans="1:33" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+    </row>
+    <row r="12" spans="1:41" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1321,7 +1410,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
-      <c r="V12" s="14"/>
+      <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
@@ -1333,18 +1422,26 @@
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
       <c r="AG12" s="3"/>
-    </row>
-    <row r="13" spans="1:33" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+    </row>
+    <row r="13" spans="1:41" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="14"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -1358,7 +1455,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
-      <c r="V13" s="14"/>
+      <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
@@ -1370,21 +1467,30 @@
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
       <c r="AG13" s="3"/>
-    </row>
-    <row r="14" spans="1:33" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+    </row>
+    <row r="14" spans="1:41" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
+      <c r="L14" s="20"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -1394,7 +1500,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
-      <c r="V14" s="14"/>
+      <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
@@ -1406,17 +1512,25 @@
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
-    </row>
-    <row r="15" spans="1:33" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+    </row>
+    <row r="15" spans="1:41" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -1432,38 +1546,46 @@
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
-      <c r="W15" s="23" t="s">
+      <c r="W15" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="X15" s="14" t="s">
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Y15" s="14" t="s">
+      <c r="AG15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Z15" s="22" t="s">
+      <c r="AH15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AA15" s="22" t="s">
+      <c r="AI15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-    </row>
-    <row r="16" spans="1:33" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="3"/>
+    </row>
+    <row r="16" spans="1:41" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -1475,36 +1597,44 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-      <c r="S16" s="14"/>
+      <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-      <c r="V16" s="14"/>
+      <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-      <c r="Y16" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="22" t="s">
-        <v>37</v>
-      </c>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
-    </row>
-    <row r="17" spans="1:33" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="AG16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
+      <c r="AO16" s="3"/>
+    </row>
+    <row r="17" spans="1:41" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -1516,34 +1646,42 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
-      <c r="S17" s="14"/>
+      <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
-      <c r="V17" s="14"/>
+      <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
-      <c r="AA17" s="22" t="s">
-        <v>38</v>
-      </c>
+      <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
-    </row>
-    <row r="18" spans="1:33" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3"/>
+      <c r="AO17" s="3"/>
+    </row>
+    <row r="18" spans="1:41" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -1562,7 +1700,7 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
-      <c r="Z18" s="14"/>
+      <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
@@ -1570,17 +1708,25 @@
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
-    </row>
-    <row r="19" spans="1:33" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="3"/>
+    </row>
+    <row r="19" spans="1:41" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -1601,23 +1747,31 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-      <c r="AB19" s="14"/>
+      <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
-    </row>
-    <row r="20" spans="1:33" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="3"/>
+    </row>
+    <row r="20" spans="1:41" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -1639,22 +1793,30 @@
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
-      <c r="AC20" s="21"/>
-      <c r="AD20" s="21"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
-    </row>
-    <row r="21" spans="1:33" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="3"/>
+    </row>
+    <row r="21" spans="1:41" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -1678,14 +1840,22 @@
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
-      <c r="AE21" s="22"/>
-      <c r="AF21" s="22"/>
-      <c r="AG21" s="22"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C1:P1"/>
-    <mergeCell ref="S1:AG1"/>
+    <mergeCell ref="S1:AO1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
